--- a/output/1Y_P16_1VAL-D.xlsx
+++ b/output/1Y_P16_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G2" s="1">
-        <v>860.0893</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.0506</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.6267</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0506</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E3" s="1">
+        <v>860.0893</v>
+      </c>
       <c r="F3" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G3" s="1">
-        <v>1672.47</v>
-      </c>
       <c r="H3" s="1">
-        <v>20480.3981</v>
+        <v>10532.3093</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.9584</v>
+        <v>10532.3093</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.6267</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20480.3981</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0267</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E4" s="1">
+        <v>1672.47</v>
+      </c>
       <c r="F4" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G4" s="1">
-        <v>2419.4298</v>
-      </c>
       <c r="H4" s="1">
-        <v>32222.4504</v>
+        <v>22274.2894</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>12.3996</v>
+        <v>22274.2894</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.9584</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32222.4504</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0572</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E5" s="1">
+        <v>2419.4298</v>
+      </c>
       <c r="F5" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G5" s="1">
-        <v>3170.5133</v>
-      </c>
       <c r="H5" s="1">
-        <v>41993.4483</v>
+        <v>32045.3481</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>12.6163</v>
+        <v>32045.3481</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.3996</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.6</v>
       </c>
-      <c r="L5" s="1">
-        <v>1306.4921</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8693.507900000001</v>
+        <v>903.1338</v>
       </c>
       <c r="O5" s="1">
-        <v>1306.4921</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>43299.9404</v>
+        <v>-9096.8662</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0255</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E6" s="1">
+        <v>3170.5133</v>
+      </c>
       <c r="F6" s="1">
-        <v>740.723</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3911.2362</v>
+        <v>737.0483</v>
       </c>
       <c r="H6" s="1">
-        <v>53386.81</v>
+        <v>43276.2379</v>
       </c>
       <c r="I6" s="1">
-        <v>50163.3115</v>
+        <v>903.1338</v>
       </c>
       <c r="J6" s="1">
-        <v>12.8254</v>
+        <v>44179.3717</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40112.8917</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.6519</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1143.1806</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>54529.9906</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0231</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E7" s="1">
+        <v>3907.5615</v>
+      </c>
       <c r="F7" s="1">
-        <v>715.6203</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4626.8566</v>
+        <v>712.0702</v>
       </c>
       <c r="H7" s="1">
-        <v>65370.0802</v>
+        <v>55207.5923</v>
       </c>
       <c r="I7" s="1">
-        <v>60326.623</v>
+        <v>790.2421000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>13.0384</v>
+        <v>55997.8343</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50225.7834</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.8535</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>979.8691</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>66349.94929999999</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0282</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E8" s="1">
+        <v>4619.6317</v>
+      </c>
       <c r="F8" s="1">
-        <v>726.5944</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5353.4509</v>
+        <v>722.9897999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>74493.8051</v>
+        <v>64282.637</v>
       </c>
       <c r="I8" s="1">
-        <v>70489.9345</v>
+        <v>677.3502999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>13.1672</v>
+        <v>64959.9873</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60338.6752</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.0614</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>816.5576</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75310.3627</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0136</v>
+        <v>-0.0157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E9" s="1">
+        <v>5342.6215</v>
+      </c>
       <c r="F9" s="1">
-        <v>788.9666999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6142.4177</v>
+        <v>785.0527</v>
       </c>
       <c r="H9" s="1">
-        <v>78715.08229999999</v>
+        <v>68465.69409999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80653.2461</v>
+        <v>564.4586</v>
       </c>
       <c r="J9" s="1">
-        <v>13.1305</v>
+        <v>69030.15270000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70451.56690000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.1867</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>653.2461</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79368.32829999999</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0697</v>
+        <v>-0.0791</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E10" s="1">
+        <v>6127.6742</v>
+      </c>
       <c r="F10" s="1">
-        <v>790.8638</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6933.2814</v>
+        <v>786.9403</v>
       </c>
       <c r="H10" s="1">
-        <v>88636.4567</v>
+        <v>78337.41190000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90816.5576</v>
+        <v>451.5669</v>
       </c>
       <c r="J10" s="1">
-        <v>13.0986</v>
+        <v>78788.9788</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80564.4586</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.1476</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>489.9345</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89126.3912</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0027</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E11" s="1">
+        <v>6914.6145</v>
+      </c>
       <c r="F11" s="1">
-        <v>733.2096</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7666.491</v>
+        <v>729.5722</v>
       </c>
       <c r="H11" s="1">
-        <v>105717.0783</v>
+        <v>95349.07670000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100979.8691</v>
+        <v>338.6752</v>
       </c>
       <c r="J11" s="1">
-        <v>13.1716</v>
+        <v>95687.7518</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90677.35030000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.1139</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>326.623</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106043.7013</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0698</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E12" s="1">
+        <v>7644.1867</v>
+      </c>
       <c r="F12" s="1">
-        <v>709.5848</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8376.075800000001</v>
+        <v>706.0645</v>
       </c>
       <c r="H12" s="1">
-        <v>119347.3537</v>
+        <v>108918.9583</v>
       </c>
       <c r="I12" s="1">
-        <v>111143.1806</v>
+        <v>225.7834</v>
       </c>
       <c r="J12" s="1">
-        <v>13.2691</v>
+        <v>109144.7417</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100790.2421</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.1852</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>163.3115</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119510.6652</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0299</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E13" s="1">
+        <v>8350.251200000001</v>
+      </c>
       <c r="F13" s="1">
-        <v>714.0115</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9090.087299999999</v>
+        <v>710.4693</v>
       </c>
       <c r="H13" s="1">
-        <v>128717.4546</v>
+        <v>118241.2272</v>
       </c>
       <c r="I13" s="1">
-        <v>121306.4921</v>
+        <v>112.8917</v>
       </c>
       <c r="J13" s="1">
-        <v>13.3449</v>
+        <v>118354.1189</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110903.1338</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.2814</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10163.3115</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128717.4546</v>
+        <v>-10112.8917</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0061</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E14" s="1">
+        <v>9060.720600000001</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9090.087299999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8350.251200000001</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123899.0111</v>
       </c>
       <c r="I14" s="1">
-        <v>121306.4921</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.3449</v>
+        <v>123899.0111</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110903.1338</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.24</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124300.5812</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124300.5812</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124300.5812</v>
+        <v>114183.8401</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1039</v>
+        <v>-0.0347</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>11.6267</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>860.0893</v>
       </c>
       <c r="G2" s="1">
-        <v>860.0893</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0506</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.6267</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0506</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>12.3095</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>860.0893</v>
       </c>
       <c r="F3" s="1">
         <v>773.1504</v>
       </c>
       <c r="G3" s="1">
-        <v>1633.2397</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10532.3093</v>
       </c>
       <c r="I3" s="1">
-        <v>19517.0951</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.9499</v>
+        <v>10532.3093</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9517.0951</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.0652</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9517.0951</v>
       </c>
-      <c r="O3" s="1">
-        <v>482.9049</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20482.9049</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0268</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.3876</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1633.2397</v>
       </c>
       <c r="F4" s="1">
         <v>619.317</v>
       </c>
       <c r="G4" s="1">
-        <v>2252.5567</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21751.8129</v>
       </c>
       <c r="I4" s="1">
-        <v>27808.2628</v>
+        <v>482.9049</v>
       </c>
       <c r="J4" s="1">
-        <v>12.3452</v>
+        <v>22234.7178</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17808.2628</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.9036</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8291.1677</v>
       </c>
-      <c r="O4" s="1">
-        <v>2191.7372</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32191.7372</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0561</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.3141</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2252.5567</v>
       </c>
       <c r="F5" s="1">
         <v>767.4509</v>
       </c>
       <c r="G5" s="1">
-        <v>3020.0076</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29835.1129</v>
       </c>
       <c r="I5" s="1">
-        <v>38026.1808</v>
+        <v>2191.7372</v>
       </c>
       <c r="J5" s="1">
-        <v>12.5914</v>
+        <v>32026.8501</v>
       </c>
       <c r="K5" s="1">
+        <v>28026.1808</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.4419</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.6</v>
       </c>
-      <c r="L5" s="1">
-        <v>1216.3806</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9001.537399999999</v>
+        <v>881.9494</v>
       </c>
       <c r="O5" s="1">
-        <v>3190.1998</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>43190.1998</v>
+        <v>-9335.9686</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0237</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.7208</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3020.0076</v>
       </c>
       <c r="F6" s="1">
         <v>643.1035000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3663.111</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41221.8951</v>
       </c>
       <c r="I6" s="1">
-        <v>46850.0747</v>
+        <v>2855.7687</v>
       </c>
       <c r="J6" s="1">
-        <v>12.7897</v>
+        <v>44077.6637</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36850.0747</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.202</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8823.893899999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>4366.3059</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54366.3059</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0221</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.2021</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3663.111</v>
       </c>
       <c r="F7" s="1">
         <v>583.6544</v>
       </c>
       <c r="G7" s="1">
-        <v>4246.7654</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51753.8976</v>
       </c>
       <c r="I7" s="1">
-        <v>55139.1925</v>
+        <v>4031.8748</v>
       </c>
       <c r="J7" s="1">
-        <v>12.9838</v>
+        <v>55785.7723</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45139.1925</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.3226</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8289.1178</v>
       </c>
-      <c r="O7" s="1">
-        <v>6077.1881</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66077.1881</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0266</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.9876</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4246.7654</v>
       </c>
       <c r="F8" s="1">
         <v>783.741</v>
       </c>
       <c r="G8" s="1">
-        <v>5030.5064</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59094.1649</v>
       </c>
       <c r="I8" s="1">
-        <v>66101.8487</v>
+        <v>5742.757</v>
       </c>
       <c r="J8" s="1">
-        <v>13.1402</v>
+        <v>64836.9219</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56101.8487</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.2105</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10962.6563</v>
       </c>
-      <c r="O8" s="1">
-        <v>5114.5319</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75114.5319</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0127</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>12.8818</v>
       </c>
       <c r="E9" s="1">
+        <v>5030.5064</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1147.363</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>1173.3245</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6203.831</v>
-      </c>
       <c r="H9" s="1">
-        <v>79502.0937</v>
+        <v>64465.9399</v>
       </c>
       <c r="I9" s="1">
-        <v>81216.3806</v>
+        <v>4780.1007</v>
       </c>
       <c r="J9" s="1">
-        <v>13.0913</v>
+        <v>69246.04059999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70881.9494</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.0904</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-15114.5319</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79502.0937</v>
+        <v>-14780.1007</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0659</v>
+        <v>-0.0747</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>12.8509</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>6177.8694</v>
       </c>
       <c r="F10" s="1">
         <v>778.1556</v>
       </c>
       <c r="G10" s="1">
-        <v>6981.9866</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>89259.1127</v>
+        <v>78979.11840000001</v>
       </c>
       <c r="I10" s="1">
-        <v>91216.3806</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.0645</v>
+        <v>78979.11840000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80881.9494</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.0922</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89259.1127</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0027</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.8614</v>
       </c>
       <c r="E11" s="1">
+        <v>6956.025</v>
+      </c>
+      <c r="F11" s="1">
+        <v>295.8695</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>269.908</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7251.8946</v>
-      </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>95920.10739999999</v>
       </c>
       <c r="I11" s="1">
-        <v>94957.6832</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.0942</v>
+        <v>95920.10739999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84983.1151</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.2172</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-3741.3026</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>6258.6974</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106258.6974</v>
+        <v>-4101.1657</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07049999999999999</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.3229</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7251.8946</v>
       </c>
       <c r="F12" s="1">
         <v>468.1621</v>
       </c>
       <c r="G12" s="1">
-        <v>7720.0567</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103329.3448</v>
       </c>
       <c r="I12" s="1">
-        <v>101663.1228</v>
+        <v>5898.8343</v>
       </c>
       <c r="J12" s="1">
-        <v>13.1687</v>
+        <v>109228.1791</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>91688.5548</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.6434</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6705.4397</v>
       </c>
-      <c r="O12" s="1">
-        <v>9553.2577</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119553.2577</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0283</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.2341</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7720.0567</v>
       </c>
       <c r="F13" s="1">
         <v>754.3999</v>
       </c>
       <c r="G13" s="1">
-        <v>8474.4566</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>109317.547</v>
       </c>
       <c r="I13" s="1">
-        <v>112401.326</v>
+        <v>9193.394700000001</v>
       </c>
       <c r="J13" s="1">
-        <v>13.2635</v>
+        <v>118510.9417</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102426.7579</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.2676</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10738.2032</v>
       </c>
-      <c r="O13" s="1">
-        <v>8815.054599999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128815.0546</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0057</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>13.7456</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8474.4566</v>
       </c>
       <c r="F14" s="1">
         <v>-8474.4566</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115882.2615</v>
       </c>
       <c r="I14" s="1">
-        <v>112401.326</v>
+        <v>8455.191500000001</v>
       </c>
       <c r="J14" s="1">
-        <v>13.2635</v>
+        <v>124337.4531</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102426.7579</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.0865</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>115882.2615</v>
       </c>
-      <c r="O14" s="1">
-        <v>124697.3161</v>
-      </c>
-      <c r="P14" s="1">
-        <v>124697.3161</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1017</v>
+        <v>-0.0325</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>11.6267</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>860.0893</v>
       </c>
       <c r="G2" s="1">
-        <v>860.0893</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0506</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.6267</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0506</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>12.3095</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>860.0893</v>
       </c>
       <c r="F3" s="1">
         <v>777.2335</v>
       </c>
       <c r="G3" s="1">
-        <v>1637.3228</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10532.3093</v>
       </c>
       <c r="I3" s="1">
-        <v>19567.356</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.9508</v>
+        <v>10532.3093</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9567.356</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.1237</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9567.356</v>
       </c>
-      <c r="O3" s="1">
-        <v>432.644</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20482.644</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0268</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.3876</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1637.3228</v>
       </c>
       <c r="F4" s="1">
         <v>626.5154</v>
       </c>
       <c r="G4" s="1">
-        <v>2263.8382</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21806.1924</v>
       </c>
       <c r="I4" s="1">
-        <v>27954.8937</v>
+        <v>432.644</v>
       </c>
       <c r="J4" s="1">
-        <v>12.3485</v>
+        <v>22238.8365</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17954.8937</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.966</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8387.537700000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>2045.1063</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32195.3563</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0562</v>
+        <v>0.08309999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.3141</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2263.8382</v>
       </c>
       <c r="F5" s="1">
         <v>778.895</v>
       </c>
       <c r="G5" s="1">
-        <v>3042.7332</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>29984.537</v>
       </c>
       <c r="I5" s="1">
-        <v>38325.1796</v>
+        <v>2045.1063</v>
       </c>
       <c r="J5" s="1">
-        <v>12.5956</v>
+        <v>32029.6433</v>
       </c>
       <c r="K5" s="1">
+        <v>28325.1796</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.512</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.6</v>
       </c>
-      <c r="L5" s="1">
-        <v>1222.4726</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9147.813200000001</v>
+        <v>884.1543</v>
       </c>
       <c r="O5" s="1">
-        <v>2897.2931</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>43198.2943</v>
+        <v>-9486.1315</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0238</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.7208</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3042.7332</v>
       </c>
       <c r="F6" s="1">
         <v>657.1925</v>
       </c>
       <c r="G6" s="1">
-        <v>3699.9257</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41532.0911</v>
       </c>
       <c r="I6" s="1">
-        <v>47342.3868</v>
+        <v>2558.9747</v>
       </c>
       <c r="J6" s="1">
-        <v>12.7955</v>
+        <v>44091.0659</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37342.3868</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.2726</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9017.2073</v>
       </c>
-      <c r="O6" s="1">
-        <v>3880.0858</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54382.5921</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0223</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.2021</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3699.9257</v>
       </c>
       <c r="F7" s="1">
         <v>600.2794</v>
       </c>
       <c r="G7" s="1">
-        <v>4300.2052</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52274.0307</v>
       </c>
       <c r="I7" s="1">
-        <v>55867.6155</v>
+        <v>3541.7675</v>
       </c>
       <c r="J7" s="1">
-        <v>12.9918</v>
+        <v>55815.7982</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45867.6155</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.3969</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8525.2287</v>
       </c>
-      <c r="O7" s="1">
-        <v>5354.8571</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66109.8759</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0268</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.9876</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4300.2052</v>
       </c>
       <c r="F8" s="1">
         <v>806.3908</v>
       </c>
       <c r="G8" s="1">
-        <v>5106.596</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>59837.785</v>
       </c>
       <c r="I8" s="1">
-        <v>67147.0877</v>
+        <v>5016.5388</v>
       </c>
       <c r="J8" s="1">
-        <v>13.1491</v>
+        <v>64854.3238</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57147.0877</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.2894</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11279.4722</v>
       </c>
-      <c r="O8" s="1">
-        <v>4075.3849</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75134.17879999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0128</v>
+        <v>-0.0146</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>12.8818</v>
       </c>
       <c r="E9" s="1">
+        <v>5106.596</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1066.3934</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>1092.6567</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6199.2527</v>
-      </c>
       <c r="H9" s="1">
-        <v>79443.4231</v>
+        <v>65441.0276</v>
       </c>
       <c r="I9" s="1">
-        <v>81222.47259999999</v>
+        <v>3737.0666</v>
       </c>
       <c r="J9" s="1">
-        <v>13.102</v>
+        <v>69178.09420000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70884.15429999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8809</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-14075.3849</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79443.4231</v>
+        <v>-13737.0666</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0668</v>
+        <v>-0.07580000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>12.8509</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>6172.9894</v>
       </c>
       <c r="F10" s="1">
         <v>778.1556</v>
       </c>
       <c r="G10" s="1">
-        <v>6977.4083</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>89200.5831</v>
+        <v>78916.7311</v>
       </c>
       <c r="I10" s="1">
-        <v>91222.47259999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.074</v>
+        <v>78916.7311</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80884.15429999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.1029</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89200.5831</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0027</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.8614</v>
       </c>
       <c r="E11" s="1">
+        <v>6951.145</v>
+      </c>
+      <c r="F11" s="1">
+        <v>466.1119</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>439.8486</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7417.2569</v>
-      </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95852.81419999999</v>
       </c>
       <c r="I11" s="1">
-        <v>97319.3901</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.1207</v>
+        <v>95852.81419999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87345.1176</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.5656</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-6096.9175</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>3903.0825</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106183.3466</v>
+        <v>-6460.9633</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0704</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.3229</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7417.2569</v>
       </c>
       <c r="F12" s="1">
         <v>498.7254</v>
       </c>
       <c r="G12" s="1">
-        <v>7915.9823</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105685.5267</v>
       </c>
       <c r="I12" s="1">
-        <v>104462.5841</v>
+        <v>3539.0367</v>
       </c>
       <c r="J12" s="1">
-        <v>13.1964</v>
+        <v>109224.5634</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94488.3116</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.739</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7143.194</v>
       </c>
-      <c r="O12" s="1">
-        <v>6759.8885</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119551.5539</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.029</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.2341</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7915.9823</v>
       </c>
       <c r="F13" s="1">
         <v>795.45</v>
       </c>
       <c r="G13" s="1">
-        <v>8711.4323</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>112091.8926</v>
       </c>
       <c r="I13" s="1">
-        <v>115785.099</v>
+        <v>6395.8427</v>
       </c>
       <c r="J13" s="1">
-        <v>13.2912</v>
+        <v>118487.7353</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105810.8265</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.3667</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11322.5149</v>
       </c>
-      <c r="O13" s="1">
-        <v>5437.3736</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128792.9973</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0059</v>
+        <v>-0.0062</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>13.7456</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8711.4323</v>
       </c>
       <c r="F14" s="1">
         <v>-8711.4323</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119122.7388</v>
       </c>
       <c r="I14" s="1">
-        <v>115785.099</v>
+        <v>5073.3278</v>
       </c>
       <c r="J14" s="1">
-        <v>13.2912</v>
+        <v>124196.0665</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105810.8265</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.1462</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119122.7388</v>
       </c>
-      <c r="O14" s="1">
-        <v>124560.1124</v>
-      </c>
-      <c r="P14" s="1">
-        <v>124560.1124</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1025</v>
+        <v>-0.0334</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>11.6267</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>860.0893</v>
       </c>
       <c r="G2" s="1">
-        <v>860.0893</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0506</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.6267</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0506</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>12.3095</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>860.0893</v>
       </c>
       <c r="F3" s="1">
         <v>781.3166</v>
       </c>
       <c r="G3" s="1">
-        <v>1641.4059</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10532.3093</v>
       </c>
       <c r="I3" s="1">
-        <v>19617.6169</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.9517</v>
+        <v>10532.3093</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9617.616900000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.1821</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9617.616900000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>382.3831</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20482.3831</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0268</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.3876</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1641.4059</v>
       </c>
       <c r="F4" s="1">
         <v>633.7514</v>
       </c>
       <c r="G4" s="1">
-        <v>2275.1573</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21860.572</v>
       </c>
       <c r="I4" s="1">
-        <v>28102.0273</v>
+        <v>382.3831</v>
       </c>
       <c r="J4" s="1">
-        <v>12.3517</v>
+        <v>22242.9551</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18102.0273</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.0284</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8484.410400000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1897.9727</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32198.9727</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0563</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.3141</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2275.1573</v>
       </c>
       <c r="F5" s="1">
         <v>790.4530999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>3065.6104</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30134.4585</v>
       </c>
       <c r="I5" s="1">
-        <v>38626.1991</v>
+        <v>1897.9727</v>
       </c>
       <c r="J5" s="1">
-        <v>12.5998</v>
+        <v>32032.4312</v>
       </c>
       <c r="K5" s="1">
+        <v>28626.1991</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.5821</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.6</v>
       </c>
-      <c r="L5" s="1">
-        <v>1228.5849</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9295.5869</v>
+        <v>886.3592</v>
       </c>
       <c r="O5" s="1">
-        <v>2602.3859</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>43206.3959</v>
+        <v>-9637.812599999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0239</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.7208</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3065.6104</v>
       </c>
       <c r="F6" s="1">
         <v>671.4991</v>
       </c>
       <c r="G6" s="1">
-        <v>3737.1095</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41844.356</v>
       </c>
       <c r="I6" s="1">
-        <v>47839.704</v>
+        <v>2260.1601</v>
       </c>
       <c r="J6" s="1">
-        <v>12.8013</v>
+        <v>44104.5161</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37839.704</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.3433</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9213.5049</v>
       </c>
-      <c r="O6" s="1">
-        <v>3388.881</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54398.9311</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0224</v>
+        <v>0.0493</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.2021</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3737.1095</v>
       </c>
       <c r="F7" s="1">
         <v>617.2512</v>
       </c>
       <c r="G7" s="1">
-        <v>4354.3608</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52799.3781</v>
       </c>
       <c r="I7" s="1">
-        <v>56605.9678</v>
+        <v>3046.6552</v>
       </c>
       <c r="J7" s="1">
-        <v>12.9998</v>
+        <v>55846.0334</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46605.9678</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.4711</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8766.2639</v>
       </c>
-      <c r="O7" s="1">
-        <v>4622.6171</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66142.7677</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0271</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.9876</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4354.3608</v>
       </c>
       <c r="F8" s="1">
         <v>829.6014</v>
       </c>
       <c r="G8" s="1">
-        <v>5183.9622</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>60591.3655</v>
       </c>
       <c r="I8" s="1">
-        <v>68210.10060000001</v>
+        <v>4280.3914</v>
       </c>
       <c r="J8" s="1">
-        <v>13.1579</v>
+        <v>64871.7568</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58210.1006</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.3682</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11604.1328</v>
       </c>
-      <c r="O8" s="1">
-        <v>3018.4844</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75153.8365</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.013</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>12.8818</v>
       </c>
       <c r="E9" s="1">
+        <v>5183.9622</v>
+      </c>
+      <c r="F9" s="1">
+        <v>984.044</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>1010.6107</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6194.5728</v>
-      </c>
       <c r="H9" s="1">
-        <v>79383.4509</v>
+        <v>66432.47530000001</v>
       </c>
       <c r="I9" s="1">
-        <v>81228.5849</v>
+        <v>2676.2586</v>
       </c>
       <c r="J9" s="1">
-        <v>13.1129</v>
+        <v>69108.73390000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70886.35920000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.6742</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-13018.4844</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79383.4509</v>
+        <v>-12676.2586</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0678</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>12.8509</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>6168.0062</v>
       </c>
       <c r="F10" s="1">
         <v>778.1556</v>
       </c>
       <c r="G10" s="1">
-        <v>6972.7285</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89140.75509999999</v>
+        <v>78853.0252</v>
       </c>
       <c r="I10" s="1">
-        <v>91228.5849</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.0836</v>
+        <v>78853.0252</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80886.35920000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.1139</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89140.75509999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0027</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.8614</v>
       </c>
       <c r="E11" s="1">
+        <v>6946.1618</v>
+      </c>
+      <c r="F11" s="1">
+        <v>640.9244</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>614.3578</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7587.0862</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>95784.0987</v>
       </c>
       <c r="I11" s="1">
-        <v>99744.4437</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.1466</v>
+        <v>95784.0987</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89770.4684</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.9238</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-8515.8588</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1484.1412</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106106.2666</v>
+        <v>-8884.109200000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0703</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.3229</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7587.0862</v>
       </c>
       <c r="F12" s="1">
         <v>530.7883</v>
       </c>
       <c r="G12" s="1">
-        <v>8117.8745</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>108105.3567</v>
       </c>
       <c r="I12" s="1">
-        <v>107346.8713</v>
+        <v>1115.8908</v>
       </c>
       <c r="J12" s="1">
-        <v>13.2235</v>
+        <v>109221.2475</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97372.8959</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.834</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7602.4275</v>
       </c>
-      <c r="O12" s="1">
-        <v>3881.7137</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119550.0604</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0297</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.2341</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8117.8745</v>
       </c>
       <c r="F13" s="1">
         <v>838.5689</v>
       </c>
       <c r="G13" s="1">
-        <v>8956.4434</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>114950.7266</v>
       </c>
       <c r="I13" s="1">
-        <v>119283.1451</v>
+        <v>3513.4633</v>
       </c>
       <c r="J13" s="1">
-        <v>13.3181</v>
+        <v>118464.1898</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109309.1697</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.4652</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11936.2738</v>
       </c>
-      <c r="O13" s="1">
-        <v>1945.4399</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128770.47</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.006</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>13.7456</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8956.4434</v>
       </c>
       <c r="F14" s="1">
         <v>-8956.4434</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122473.0943</v>
       </c>
       <c r="I14" s="1">
-        <v>119283.1451</v>
+        <v>1577.1895</v>
       </c>
       <c r="J14" s="1">
-        <v>13.3181</v>
+        <v>124050.2837</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109309.1697</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.2045</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122473.0943</v>
       </c>
-      <c r="O14" s="1">
-        <v>124418.5341</v>
-      </c>
-      <c r="P14" s="1">
-        <v>124418.5341</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1034</v>
+        <v>-0.0344</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>11.6267</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>860.0893</v>
       </c>
       <c r="G2" s="1">
-        <v>860.0893</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0506</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.6267</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0506</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>12.3095</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>860.0893</v>
       </c>
       <c r="F3" s="1">
         <v>785.3997000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1645.489</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10532.3093</v>
       </c>
       <c r="I3" s="1">
-        <v>19667.8778</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.9526</v>
+        <v>10532.3093</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9667.8778</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.2406</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9667.8778</v>
       </c>
-      <c r="O3" s="1">
-        <v>332.1222</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20482.1222</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0268</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.3876</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1645.489</v>
       </c>
       <c r="F4" s="1">
         <v>641.025</v>
       </c>
       <c r="G4" s="1">
-        <v>2286.5139</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21914.9515</v>
       </c>
       <c r="I4" s="1">
-        <v>28249.6634</v>
+        <v>332.1222</v>
       </c>
       <c r="J4" s="1">
-        <v>12.3549</v>
+        <v>22247.0737</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18249.6634</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.0907</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8581.785599999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1750.3366</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32202.5866</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0564</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.3141</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2286.5139</v>
       </c>
       <c r="F5" s="1">
         <v>802.1258</v>
       </c>
       <c r="G5" s="1">
-        <v>3088.6398</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30284.8772</v>
       </c>
       <c r="I5" s="1">
-        <v>38929.2469</v>
+        <v>1750.3366</v>
       </c>
       <c r="J5" s="1">
-        <v>12.604</v>
+        <v>32035.2138</v>
       </c>
       <c r="K5" s="1">
+        <v>28929.2469</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.6521</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.6</v>
       </c>
-      <c r="L5" s="1">
-        <v>1234.7175</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9444.865900000001</v>
+        <v>888.5641000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>2305.4706</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>43214.5044</v>
+        <v>-9791.019399999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.024</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.7208</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3088.6398</v>
       </c>
       <c r="F6" s="1">
         <v>686.0254</v>
       </c>
       <c r="G6" s="1">
-        <v>3774.6651</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42158.6974</v>
       </c>
       <c r="I6" s="1">
-        <v>48342.0638</v>
+        <v>1959.3172</v>
       </c>
       <c r="J6" s="1">
-        <v>12.807</v>
+        <v>44118.0146</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38342.0638</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.4139</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9412.8169</v>
       </c>
-      <c r="O6" s="1">
-        <v>2892.6538</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54415.323</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0226</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.2021</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3774.6651</v>
       </c>
       <c r="F7" s="1">
         <v>634.5751</v>
       </c>
       <c r="G7" s="1">
-        <v>4409.2402</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53329.9789</v>
       </c>
       <c r="I7" s="1">
-        <v>57354.3623</v>
+        <v>2546.5003</v>
       </c>
       <c r="J7" s="1">
-        <v>13.0078</v>
+        <v>55876.4792</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47354.3623</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>12.5453</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9012.2986</v>
       </c>
-      <c r="O7" s="1">
-        <v>3880.3552</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66175.8645</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0273</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.9876</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4409.2402</v>
       </c>
       <c r="F8" s="1">
         <v>853.384</v>
       </c>
       <c r="G8" s="1">
-        <v>5262.6242</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>61355.0184</v>
       </c>
       <c r="I8" s="1">
-        <v>69291.1562</v>
+        <v>3534.2017</v>
       </c>
       <c r="J8" s="1">
-        <v>13.1667</v>
+        <v>64889.2201</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59291.1562</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.447</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11936.7939</v>
       </c>
-      <c r="O8" s="1">
-        <v>1943.5613</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75173.50320000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0132</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>12.8818</v>
       </c>
       <c r="E9" s="1">
+        <v>5262.6242</v>
+      </c>
+      <c r="F9" s="1">
+        <v>900.294</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>927.1656</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6189.7898</v>
-      </c>
       <c r="H9" s="1">
-        <v>79322.1557</v>
+        <v>67440.5291</v>
       </c>
       <c r="I9" s="1">
-        <v>81234.7175</v>
+        <v>1597.4078</v>
       </c>
       <c r="J9" s="1">
-        <v>13.124</v>
+        <v>69037.9369</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70888.5641</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.4702</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11943.5613</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>79322.1557</v>
+        <v>-11597.4078</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0687</v>
+        <v>-0.0781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>12.8509</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>6162.9182</v>
       </c>
       <c r="F10" s="1">
         <v>778.1556</v>
       </c>
       <c r="G10" s="1">
-        <v>6967.9454</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89079.6072</v>
+        <v>78787.9794</v>
       </c>
       <c r="I10" s="1">
-        <v>91234.7175</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.0935</v>
+        <v>78787.9794</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80888.5641</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.125</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89079.6072</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0027</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.8614</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6941.0739</v>
       </c>
       <c r="F11" s="1">
         <v>721.4279</v>
       </c>
       <c r="G11" s="1">
-        <v>7689.3732</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>106032.612</v>
+        <v>95713.9379</v>
       </c>
       <c r="I11" s="1">
-        <v>101234.7175</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.1655</v>
+        <v>95713.9379</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90888.5641</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.0943</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106032.612</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0702</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.3229</v>
       </c>
       <c r="E12" s="1">
+        <v>7662.5017</v>
+      </c>
+      <c r="F12" s="1">
+        <v>663.4127999999999</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>636.5413</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8325.914500000001</v>
-      </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>109179.9218</v>
       </c>
       <c r="I12" s="1">
-        <v>110351.8342</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.254</v>
+        <v>109179.9218</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100390.5588</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.1015</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-9117.1167</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>882.8833</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>119515.5083</v>
+        <v>-9501.994699999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.03</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.2341</v>
       </c>
       <c r="E13" s="1">
+        <v>8325.914500000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>737.525</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>764.5642</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9090.4787</v>
-      </c>
       <c r="H13" s="1">
-        <v>128722.9961</v>
+        <v>117896.6141</v>
       </c>
       <c r="I13" s="1">
-        <v>121234.7175</v>
+        <v>498.0053</v>
       </c>
       <c r="J13" s="1">
-        <v>13.3365</v>
+        <v>118394.6194</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110888.5641</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.3185</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10882.8833</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128722.9961</v>
+        <v>-10498.0053</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0061</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>13.7456</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9063.4395</v>
       </c>
       <c r="F14" s="1">
-        <v>-9090.4787</v>
+        <v>-9063.4395</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123936.191</v>
       </c>
       <c r="I14" s="1">
-        <v>121234.7175</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.3365</v>
+        <v>123936.191</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110888.5641</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.2347</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>124305.9325</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>124305.9325</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124305.9325</v>
+        <v>123936.191</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1039</v>
+        <v>-0.0347</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.7085</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3449</v>
+        <v>12.24</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2635</v>
+        <v>12.0865</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2912</v>
+        <v>12.1462</v>
       </c>
       <c r="F3" s="1">
-        <v>13.3181</v>
+        <v>12.2045</v>
       </c>
       <c r="G3" s="1">
-        <v>13.3365</v>
+        <v>12.2347</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1813</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0643</v>
+        <v>0.1865</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0654</v>
+        <v>0.1883</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0644</v>
+        <v>0.1873</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0635</v>
+        <v>0.1863</v>
       </c>
       <c r="G4" s="3">
-        <v>0.06270000000000001</v>
+        <v>0.1854</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1599</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1651</v>
+        <v>0.1605</v>
       </c>
       <c r="D5" s="3">
-        <v>0.161</v>
+        <v>0.1553</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1622</v>
+        <v>0.1566</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1633</v>
+        <v>0.1578</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1642</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.0067</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2662</v>
+        <v>1.0353</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2798</v>
+        <v>1.0816</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2721</v>
+        <v>1.0667</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2642</v>
+        <v>1.0516</v>
       </c>
       <c r="G6" s="4">
-        <v>0.2578</v>
+        <v>1.039</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0673</v>
+        <v>-0.0887</v>
       </c>
       <c r="D7" s="3">
-        <v>0.07770000000000001</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0743</v>
+        <v>0.068</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0708</v>
+        <v>0.0646</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0682</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1306.4921</v>
+        <v>903.1338</v>
       </c>
       <c r="D8" s="1">
-        <v>1216.3806</v>
+        <v>881.9494</v>
       </c>
       <c r="E8" s="1">
-        <v>1222.4726</v>
+        <v>884.1543</v>
       </c>
       <c r="F8" s="1">
-        <v>1228.5849</v>
+        <v>886.3592</v>
       </c>
       <c r="G8" s="1">
-        <v>1234.7175</v>
+        <v>888.5641000000001</v>
       </c>
     </row>
   </sheetData>
